--- a/demo_lexicon/Lexicon.xlsx
+++ b/demo_lexicon/Lexicon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4CE42-31AC-4206-A4CF-9B4E5E66670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F26554E-E7F2-455C-82D0-D3D6A5DAA89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1114">
   <si>
     <t>Text</t>
   </si>
@@ -3081,6 +3081,306 @@
   </si>
   <si>
     <t>espera</t>
+  </si>
+  <si>
+    <t>mejor opcion</t>
+  </si>
+  <si>
+    <t>lider</t>
+  </si>
+  <si>
+    <t>no servicio</t>
+  </si>
+  <si>
+    <t>feliz</t>
+  </si>
+  <si>
+    <t>agradable</t>
+  </si>
+  <si>
+    <t>gran servicio</t>
+  </si>
+  <si>
+    <t>acuerdo</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>guau</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>inhumano</t>
+  </si>
+  <si>
+    <t>si poder poner</t>
+  </si>
+  <si>
+    <t>excusa</t>
+  </si>
+  <si>
+    <t>beneficio</t>
+  </si>
+  <si>
+    <t>ineficiente</t>
+  </si>
+  <si>
+    <t>nefasto</t>
+  </si>
+  <si>
+    <t>ni contestan</t>
+  </si>
+  <si>
+    <t>poco profesional</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>nulo</t>
+  </si>
+  <si>
+    <t>tarde</t>
+  </si>
+  <si>
+    <t>cero apoyo</t>
+  </si>
+  <si>
+    <t>sin apoyo</t>
+  </si>
+  <si>
+    <t>casi hora</t>
+  </si>
+  <si>
+    <t>mala gana</t>
+  </si>
+  <si>
+    <t>no sincero</t>
+  </si>
+  <si>
+    <t>alargar</t>
+  </si>
+  <si>
+    <t>no mostrar</t>
+  </si>
+  <si>
+    <t>limitar</t>
+  </si>
+  <si>
+    <t>dificil</t>
+  </si>
+  <si>
+    <t>nadie contestar</t>
+  </si>
+  <si>
+    <t>cansir</t>
+  </si>
+  <si>
+    <t>perdi</t>
+  </si>
+  <si>
+    <t>cambiense</t>
+  </si>
+  <si>
+    <t>tirar</t>
+  </si>
+  <si>
+    <t>tirar plata</t>
+  </si>
+  <si>
+    <t>maltrato</t>
+  </si>
+  <si>
+    <t>mediocr</t>
+  </si>
+  <si>
+    <t>no funcionar</t>
+  </si>
+  <si>
+    <t>frio</t>
+  </si>
+  <si>
+    <t>tratar amabilidad</t>
+  </si>
+  <si>
+    <t>capacitar</t>
+  </si>
+  <si>
+    <t>no venir</t>
+  </si>
+  <si>
+    <t>tratar</t>
+  </si>
+  <si>
+    <t>no reconocer</t>
+  </si>
+  <si>
+    <t>servicial</t>
+  </si>
+  <si>
+    <t>organizado</t>
+  </si>
+  <si>
+    <t>concis</t>
+  </si>
+  <si>
+    <t>detallado</t>
+  </si>
+  <si>
+    <t>trabar</t>
+  </si>
+  <si>
+    <t>no agrado</t>
+  </si>
+  <si>
+    <t>no señal</t>
+  </si>
+  <si>
+    <t>no poder creer</t>
+  </si>
+  <si>
+    <t>decir gran empresa</t>
+  </si>
+  <si>
+    <t>no tener personal calificado</t>
+  </si>
+  <si>
+    <t>amablemente</t>
+  </si>
+  <si>
+    <t>exelente</t>
+  </si>
+  <si>
+    <t>cualquiera cosa</t>
+  </si>
+  <si>
+    <t>preocupado</t>
+  </si>
+  <si>
+    <t>medio hora</t>
+  </si>
+  <si>
+    <t>no primero vez</t>
+  </si>
+  <si>
+    <t>cualquiera</t>
+  </si>
+  <si>
+    <t>cualquier</t>
+  </si>
+  <si>
+    <t>bonito</t>
+  </si>
+  <si>
+    <t>resguardado</t>
+  </si>
+  <si>
+    <t>poco tiempo espera</t>
+  </si>
+  <si>
+    <t>correctamente</t>
+  </si>
+  <si>
+    <t>facil perder</t>
+  </si>
+  <si>
+    <t>limpieza</t>
+  </si>
+  <si>
+    <t>agil</t>
+  </si>
+  <si>
+    <t>broma</t>
+  </si>
+  <si>
+    <t>sensibilidad</t>
+  </si>
+  <si>
+    <t>querer pagar</t>
+  </si>
+  <si>
+    <t>deber brindar</t>
+  </si>
+  <si>
+    <t>llamar varios vez</t>
+  </si>
+  <si>
+    <t>faltar buen</t>
+  </si>
+  <si>
+    <t>faltar buen atencion</t>
+  </si>
+  <si>
+    <t>faltar buen atencion personalizado</t>
+  </si>
+  <si>
+    <t>no orientacion</t>
+  </si>
+  <si>
+    <t>no necesario</t>
+  </si>
+  <si>
+    <t>tiempo perdido</t>
+  </si>
+  <si>
+    <t>deber resolver</t>
+  </si>
+  <si>
+    <t>faltar veracidad</t>
+  </si>
+  <si>
+    <t>felizmente poder solucionar</t>
+  </si>
+  <si>
+    <t>total desorganizacion</t>
+  </si>
+  <si>
+    <t>no organización</t>
+  </si>
+  <si>
+    <t>porfavor</t>
+  </si>
+  <si>
+    <t>papeleo</t>
+  </si>
+  <si>
+    <t>grato</t>
+  </si>
+  <si>
+    <t>correcto</t>
+  </si>
+  <si>
+    <t>trato comunicar</t>
+  </si>
+  <si>
+    <t>trato llamar</t>
+  </si>
+  <si>
+    <t>trato contactar</t>
+  </si>
+  <si>
+    <t>no suficiente</t>
+  </si>
+  <si>
+    <t>tratar comunicar</t>
+  </si>
+  <si>
+    <t>tratar llamar</t>
+  </si>
+  <si>
+    <t>tratar contactar</t>
+  </si>
+  <si>
+    <t>perseverancia</t>
+  </si>
+  <si>
+    <t>esperar mucho</t>
+  </si>
+  <si>
+    <t>esperar demasiado</t>
   </si>
 </sst>
 </file>
@@ -11298,16 +11598,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}">
-  <dimension ref="A1:K425"/>
+  <dimension ref="A1:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16103,6 +16403,1150 @@
         <v>0</v>
       </c>
       <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>575</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>895</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>304</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>615</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
         <v>1</v>
       </c>
     </row>

--- a/demo_lexicon/Lexicon.xlsx
+++ b/demo_lexicon/Lexicon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F26554E-E7F2-455C-82D0-D3D6A5DAA89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C776BA71-DC3A-42A5-A26F-31029DC6D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="lexicon_master" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$B$1:$C$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$A$1:$K$529</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11601,7 +11601,7 @@
   <dimension ref="A1:K529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15114,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -17551,6 +17551,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K529" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K477">
     <sortCondition ref="A1:A477"/>
   </sortState>

--- a/demo_lexicon/Lexicon.xlsx
+++ b/demo_lexicon/Lexicon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jat\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E129F-FDDA-4558-BF09-591DDD09187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC4019-8585-473C-80CC-826F5F050B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
+    <workbookView xWindow="16524" yWindow="0" windowWidth="6612" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{9B249666-9A8A-4383-8168-2FD58BE5AA28}"/>
   </bookViews>
   <sheets>
     <sheet name="lexiconv1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="lexicon_master" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$A$1:$K$894</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lexiconv2_lematizado!$A$1:$K$1215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1694">
   <si>
     <t>Text</t>
   </si>
@@ -4263,6 +4263,864 @@
   </si>
   <si>
     <t>poco precisar</t>
+  </si>
+  <si>
+    <t>nunca mas</t>
+  </si>
+  <si>
+    <t>hasta ahora nada</t>
+  </si>
+  <si>
+    <t>ahora nada</t>
+  </si>
+  <si>
+    <t>hasta nada</t>
+  </si>
+  <si>
+    <t>ya pues</t>
+  </si>
+  <si>
+    <t>ni auto tener</t>
+  </si>
+  <si>
+    <t>desgraciar</t>
+  </si>
+  <si>
+    <t>no oriente</t>
+  </si>
+  <si>
+    <t>auxilio</t>
+  </si>
+  <si>
+    <t>mal servicio</t>
+  </si>
+  <si>
+    <t>abstener</t>
+  </si>
+  <si>
+    <t>reclamación</t>
+  </si>
+  <si>
+    <t>reclamacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negar </t>
+  </si>
+  <si>
+    <t>cada dos hora</t>
+  </si>
+  <si>
+    <t>cada hora</t>
+  </si>
+  <si>
+    <t>hacer nada</t>
+  </si>
+  <si>
+    <t>tiempo unico</t>
+  </si>
+  <si>
+    <t>ahora resultar</t>
+  </si>
+  <si>
+    <t>ahora acontecer</t>
+  </si>
+  <si>
+    <t>erronea</t>
+  </si>
+  <si>
+    <t>dano</t>
+  </si>
+  <si>
+    <t>caluroso</t>
+  </si>
+  <si>
+    <t>pequén</t>
+  </si>
+  <si>
+    <t>pequen</t>
+  </si>
+  <si>
+    <t>largo tiempo</t>
+  </si>
+  <si>
+    <t>pepe pillo</t>
+  </si>
+  <si>
+    <t>jugar</t>
+  </si>
+  <si>
+    <t>mil traba</t>
+  </si>
+  <si>
+    <t>abstención</t>
+  </si>
+  <si>
+    <t>abstencion</t>
+  </si>
+  <si>
+    <t>culpa</t>
+  </si>
+  <si>
+    <t>raro</t>
+  </si>
+  <si>
+    <t>no sonar</t>
+  </si>
+  <si>
+    <t>cero sol</t>
+  </si>
+  <si>
+    <t>adefesio</t>
+  </si>
+  <si>
+    <t>no dar mas comer</t>
+  </si>
+  <si>
+    <t>ladrón</t>
+  </si>
+  <si>
+    <t>ladron</t>
+  </si>
+  <si>
+    <t>clonacion</t>
+  </si>
+  <si>
+    <t>no dar cara</t>
+  </si>
+  <si>
+    <t>defensor</t>
+  </si>
+  <si>
+    <t>no pasar nada</t>
+  </si>
+  <si>
+    <t>esperar tres hora</t>
+  </si>
+  <si>
+    <t>esperar cuatro hora</t>
+  </si>
+  <si>
+    <t>esperar mil hora</t>
+  </si>
+  <si>
+    <t>no reembolsar</t>
+  </si>
+  <si>
+    <t>medio ano</t>
+  </si>
+  <si>
+    <t>ni importar</t>
+  </si>
+  <si>
+    <t>responder maquina</t>
+  </si>
+  <si>
+    <t>responder robot</t>
+  </si>
+  <si>
+    <t>no entendiar</t>
+  </si>
+  <si>
+    <t>no entender</t>
+  </si>
+  <si>
+    <t>inodoro</t>
+  </si>
+  <si>
+    <t>estrecho</t>
+  </si>
+  <si>
+    <t>poco asiento</t>
+  </si>
+  <si>
+    <t>mortificar</t>
+  </si>
+  <si>
+    <t>deshacer</t>
+  </si>
+  <si>
+    <t>menos flujo</t>
+  </si>
+  <si>
+    <t>mas semana</t>
+  </si>
+  <si>
+    <t>no solucion</t>
+  </si>
+  <si>
+    <t>ni llamado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no respuesta </t>
+  </si>
+  <si>
+    <t>vacia</t>
+  </si>
+  <si>
+    <t>vacio</t>
+  </si>
+  <si>
+    <t>esperar mas hora</t>
+  </si>
+  <si>
+    <t>no apoyar</t>
+  </si>
+  <si>
+    <t>desorden</t>
+  </si>
+  <si>
+    <t>no escuchar</t>
+  </si>
+  <si>
+    <t>tratar comprar</t>
+  </si>
+  <si>
+    <t>tener buscar otro</t>
+  </si>
+  <si>
+    <t>tener buscar otra</t>
+  </si>
+  <si>
+    <t>fresco</t>
+  </si>
+  <si>
+    <t>desastrozar</t>
+  </si>
+  <si>
+    <t>ano ano pagar</t>
+  </si>
+  <si>
+    <t>mejor decision</t>
+  </si>
+  <si>
+    <t>desgraciadamente</t>
+  </si>
+  <si>
+    <t>cerrar</t>
+  </si>
+  <si>
+    <t>faltar</t>
+  </si>
+  <si>
+    <t>solo falta</t>
+  </si>
+  <si>
+    <t>canse</t>
+  </si>
+  <si>
+    <t>cansa</t>
+  </si>
+  <si>
+    <t>incomodir</t>
+  </si>
+  <si>
+    <t>no llamir</t>
+  </si>
+  <si>
+    <t>no llamir mas</t>
+  </si>
+  <si>
+    <t>nunca contesto</t>
+  </si>
+  <si>
+    <t>desear saber</t>
+  </si>
+  <si>
+    <t>no robot</t>
+  </si>
+  <si>
+    <t>millón ganar</t>
+  </si>
+  <si>
+    <t>millon ganar</t>
+  </si>
+  <si>
+    <t>dar clase</t>
+  </si>
+  <si>
+    <t>desorganizado</t>
+  </si>
+  <si>
+    <t>mucho mejorar</t>
+  </si>
+  <si>
+    <t>querer retirar</t>
+  </si>
+  <si>
+    <t>devolveriar</t>
+  </si>
+  <si>
+    <t>increible robo</t>
+  </si>
+  <si>
+    <t>demore</t>
+  </si>
+  <si>
+    <t>mas minuto</t>
+  </si>
+  <si>
+    <t>nunca tener problema</t>
+  </si>
+  <si>
+    <t>deberio</t>
+  </si>
+  <si>
+    <t>revaluar</t>
+  </si>
+  <si>
+    <t>solo faltar</t>
+  </si>
+  <si>
+    <t>poco espacio</t>
+  </si>
+  <si>
+    <t>obligar</t>
+  </si>
+  <si>
+    <t>responsabilizar</t>
+  </si>
+  <si>
+    <t>esmerado</t>
+  </si>
+  <si>
+    <t>buscar excusa</t>
+  </si>
+  <si>
+    <t>ratero</t>
+  </si>
+  <si>
+    <t>abusivo</t>
+  </si>
+  <si>
+    <t>faltar rapidez</t>
+  </si>
+  <si>
+    <t>falta rapido</t>
+  </si>
+  <si>
+    <t>chiquito</t>
+  </si>
+  <si>
+    <t>finalmente resolver</t>
+  </si>
+  <si>
+    <t>mucho gente</t>
+  </si>
+  <si>
+    <t>sobrepasar</t>
+  </si>
+  <si>
+    <t>pequeno</t>
+  </si>
+  <si>
+    <t>contento</t>
+  </si>
+  <si>
+    <t>contenta</t>
+  </si>
+  <si>
+    <t>no contestir</t>
+  </si>
+  <si>
+    <t>aprovechar</t>
+  </si>
+  <si>
+    <t>aprovecha</t>
+  </si>
+  <si>
+    <t>aprovechir</t>
+  </si>
+  <si>
+    <t>hermoso</t>
+  </si>
+  <si>
+    <t>chico</t>
+  </si>
+  <si>
+    <t>local chico</t>
+  </si>
+  <si>
+    <t>acosar</t>
+  </si>
+  <si>
+    <t>solo querer</t>
+  </si>
+  <si>
+    <t>no tenio</t>
+  </si>
+  <si>
+    <t>apagado</t>
+  </si>
+  <si>
+    <t>costo superar</t>
+  </si>
+  <si>
+    <t>no aplicar</t>
+  </si>
+  <si>
+    <t>maltratar</t>
+  </si>
+  <si>
+    <t>irrespetuoso</t>
+  </si>
+  <si>
+    <t>no pensar</t>
+  </si>
+  <si>
+    <t>no permitir</t>
+  </si>
+  <si>
+    <t>mal rato</t>
+  </si>
+  <si>
+    <t>obstaculo</t>
+  </si>
+  <si>
+    <t>pierdo tiempo</t>
+  </si>
+  <si>
+    <t>pierde tiempo</t>
+  </si>
+  <si>
+    <t>pierda tiempo</t>
+  </si>
+  <si>
+    <t>sobrado cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sobrado </t>
+  </si>
+  <si>
+    <t>mejor aseguradora</t>
+  </si>
+  <si>
+    <t>cheverar</t>
+  </si>
+  <si>
+    <t>nadie contesta</t>
+  </si>
+  <si>
+    <t>tampoco opcion</t>
+  </si>
+  <si>
+    <t>indolente</t>
+  </si>
+  <si>
+    <t>ni caso</t>
+  </si>
+  <si>
+    <t>buen impresión</t>
+  </si>
+  <si>
+    <t>no respetar</t>
+  </si>
+  <si>
+    <t>tardan</t>
+  </si>
+  <si>
+    <t>tarda</t>
+  </si>
+  <si>
+    <t>renuncia</t>
+  </si>
+  <si>
+    <t>renunciar</t>
+  </si>
+  <si>
+    <t>no recomendario</t>
+  </si>
+  <si>
+    <t>desorganizacion</t>
+  </si>
+  <si>
+    <t>insensible</t>
+  </si>
+  <si>
+    <t>sordo</t>
+  </si>
+  <si>
+    <t>nadie dar</t>
+  </si>
+  <si>
+    <t>no siquiera</t>
+  </si>
+  <si>
+    <t>burla</t>
+  </si>
+  <si>
+    <t>proteger salud</t>
+  </si>
+  <si>
+    <t>proteger familia</t>
+  </si>
+  <si>
+    <t>ni mas</t>
+  </si>
+  <si>
+    <t>no mucho agrado</t>
+  </si>
+  <si>
+    <t>amargo</t>
+  </si>
+  <si>
+    <t>mejor compania</t>
+  </si>
+  <si>
+    <t>mejor compañia</t>
+  </si>
+  <si>
+    <t>bloqueo</t>
+  </si>
+  <si>
+    <t>bloquear</t>
+  </si>
+  <si>
+    <t>bloquea</t>
+  </si>
+  <si>
+    <t>bloqueado</t>
+  </si>
+  <si>
+    <t>no poner lugar</t>
+  </si>
+  <si>
+    <t>no poner</t>
+  </si>
+  <si>
+    <t>engorrós</t>
+  </si>
+  <si>
+    <t>engorros</t>
+  </si>
+  <si>
+    <t>demasiado pregunta</t>
+  </si>
+  <si>
+    <t>no enfocar</t>
+  </si>
+  <si>
+    <t>no preocuparar</t>
+  </si>
+  <si>
+    <t>mentira</t>
+  </si>
+  <si>
+    <t>pretexto</t>
+  </si>
+  <si>
+    <t>ni caro ni barato</t>
+  </si>
+  <si>
+    <t>capacitar mejor</t>
+  </si>
+  <si>
+    <t>ayudo</t>
+  </si>
+  <si>
+    <t>empaticos</t>
+  </si>
+  <si>
+    <t>momento dificil</t>
+  </si>
+  <si>
+    <t>no cubrio</t>
+  </si>
+  <si>
+    <t>no tranquilo</t>
+  </si>
+  <si>
+    <t>no tranquilidad</t>
+  </si>
+  <si>
+    <t>no cambiar</t>
+  </si>
+  <si>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>serio</t>
+  </si>
+  <si>
+    <t>no me dar</t>
+  </si>
+  <si>
+    <t>no facilitar</t>
+  </si>
+  <si>
+    <t>solo habia</t>
+  </si>
+  <si>
+    <t>corrijar</t>
+  </si>
+  <si>
+    <t>confiar</t>
+  </si>
+  <si>
+    <t>inutil</t>
+  </si>
+  <si>
+    <t>delinquir</t>
+  </si>
+  <si>
+    <t>fantasma</t>
+  </si>
+  <si>
+    <t>q clase</t>
+  </si>
+  <si>
+    <t>que clase</t>
+  </si>
+  <si>
+    <t>ke clase</t>
+  </si>
+  <si>
+    <t>k clase</t>
+  </si>
+  <si>
+    <t>vez dar</t>
+  </si>
+  <si>
+    <t>si poder ir</t>
+  </si>
+  <si>
+    <t>orden llegada</t>
+  </si>
+  <si>
+    <t>implementar mejor</t>
+  </si>
+  <si>
+    <t>hacer mejor</t>
+  </si>
+  <si>
+    <t>brindar mejor</t>
+  </si>
+  <si>
+    <t>mas dos hora</t>
+  </si>
+  <si>
+    <t>poco demora</t>
+  </si>
+  <si>
+    <t>mandar lugar otro</t>
+  </si>
+  <si>
+    <t>explicar si tener duda</t>
+  </si>
+  <si>
+    <t>llevar hora</t>
+  </si>
+  <si>
+    <t>claro</t>
+  </si>
+  <si>
+    <t>concreto</t>
+  </si>
+  <si>
+    <t>obsoleto</t>
+  </si>
+  <si>
+    <t>requerir</t>
+  </si>
+  <si>
+    <t>requerir atencion rapido</t>
+  </si>
+  <si>
+    <t>requerir atencion mas rapido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requerir buen </t>
+  </si>
+  <si>
+    <t>requerir bueno</t>
+  </si>
+  <si>
+    <t>requerir mucho</t>
+  </si>
+  <si>
+    <t>requerir buena</t>
+  </si>
+  <si>
+    <t>adecuado</t>
+  </si>
+  <si>
+    <t>eficaz</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
+    <t>bondadoso</t>
+  </si>
+  <si>
+    <t>honesto</t>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t>integro</t>
+  </si>
+  <si>
+    <t>generoso</t>
+  </si>
+  <si>
+    <t>optimo</t>
+  </si>
+  <si>
+    <t>conveniente</t>
+  </si>
+  <si>
+    <t>resolutivo</t>
+  </si>
+  <si>
+    <t>no resolutivo</t>
+  </si>
+  <si>
+    <t>adecuado cuidado</t>
+  </si>
+  <si>
+    <t>aclara duda</t>
+  </si>
+  <si>
+    <t>aclaran duda</t>
+  </si>
+  <si>
+    <t>pronta</t>
+  </si>
+  <si>
+    <t>prontar</t>
+  </si>
+  <si>
+    <t>marcar diferencia</t>
+  </si>
+  <si>
+    <t>no capacitado</t>
+  </si>
+  <si>
+    <t>solo atender</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cualquiera inquietud</t>
+  </si>
+  <si>
+    <t>asesoria</t>
+  </si>
+  <si>
+    <t>amigable</t>
+  </si>
+  <si>
+    <t>tener estacionamiento</t>
+  </si>
+  <si>
+    <t>busquen</t>
+  </si>
+  <si>
+    <t>inoperativa</t>
+  </si>
+  <si>
+    <t>ahorren</t>
+  </si>
+  <si>
+    <t>ahorrensir</t>
+  </si>
+  <si>
+    <t>no seriar mejor</t>
+  </si>
+  <si>
+    <t>nadie atendiar</t>
+  </si>
+  <si>
+    <t>amplio gama</t>
+  </si>
+  <si>
+    <t>precio bajo</t>
+  </si>
+  <si>
+    <t>precio mucho</t>
+  </si>
+  <si>
+    <t>robar</t>
+  </si>
+  <si>
+    <t>siempre confiar</t>
+  </si>
+  <si>
+    <t>felicitaciones</t>
+  </si>
+  <si>
+    <t>felicitación</t>
+  </si>
+  <si>
+    <t>felicitacion</t>
+  </si>
+  <si>
+    <t>no atendiar</t>
+  </si>
+  <si>
+    <t>poco concurrencia</t>
+  </si>
+  <si>
+    <t>cancelación</t>
+  </si>
+  <si>
+    <t>imaginable</t>
+  </si>
+  <si>
+    <t>indiferent</t>
+  </si>
+  <si>
+    <t>solo dos persona</t>
+  </si>
+  <si>
+    <t>solo dos</t>
+  </si>
+  <si>
+    <t>solo uno</t>
+  </si>
+  <si>
+    <t>solo persona</t>
+  </si>
+  <si>
+    <t>no apropiado</t>
+  </si>
+  <si>
+    <t>rodeo</t>
+  </si>
+  <si>
+    <t>ni siquiera caramelo</t>
+  </si>
+  <si>
+    <t>poco capacitacion</t>
+  </si>
+  <si>
+    <t>pronta atencion</t>
+  </si>
+  <si>
+    <t>especializado</t>
+  </si>
+  <si>
+    <t>deber venir</t>
+  </si>
+  <si>
+    <t>proactivo</t>
+  </si>
+  <si>
+    <t>solo medio</t>
+  </si>
+  <si>
+    <t>no personal</t>
+  </si>
+  <si>
+    <t>equivocado</t>
+  </si>
+  <si>
+    <t>minimo respeto</t>
+  </si>
+  <si>
+    <t>no seguir</t>
   </si>
 </sst>
 </file>
@@ -12480,11 +13338,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}">
-  <dimension ref="A1:K894"/>
+  <dimension ref="A1:K1230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1231" sqref="A1231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12589,10 +13447,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -17492,7 +18350,7 @@
         <v>1027</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -18479,18 +19337,18 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>587</v>
+        <v>1118</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -18501,7 +19359,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>619</v>
+        <v>1120</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -18512,62 +19370,62 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>82</v>
+        <v>1122</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="B540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>348</v>
+        <v>1125</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B542">
         <v>0</v>
@@ -18578,18 +19436,18 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1123</v>
+        <v>136</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -18600,7 +19458,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B545">
         <v>0</v>
@@ -18611,29 +19469,29 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>59</v>
+        <v>1130</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>136</v>
+        <v>1131</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -18644,18 +19502,18 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="B550">
         <v>0</v>
@@ -18666,51 +19524,51 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>722</v>
+        <v>1134</v>
       </c>
       <c r="B551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>137</v>
+        <v>1138</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -18721,51 +19579,51 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="B556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="B557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1135</v>
+        <v>560</v>
       </c>
       <c r="B559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>587</v>
+        <v>1142</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -18776,29 +19634,29 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="B562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -18809,7 +19667,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -18820,7 +19678,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -18831,29 +19689,29 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>869</v>
+        <v>1148</v>
       </c>
       <c r="B566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="B567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>757</v>
+        <v>1150</v>
       </c>
       <c r="B568">
         <v>0</v>
@@ -18864,7 +19722,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>560</v>
+        <v>1151</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -18875,29 +19733,29 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1142</v>
+        <v>96</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="B571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -18908,7 +19766,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -18919,18 +19777,18 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -18941,7 +19799,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -18952,7 +19810,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -18963,7 +19821,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="B578">
         <v>0</v>
@@ -18974,54 +19832,54 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>775</v>
+        <v>1160</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>96</v>
+        <v>1162</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -19029,10 +19887,10 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -19040,7 +19898,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -19051,51 +19909,51 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1020</v>
+        <v>1170</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -19106,7 +19964,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="B591">
         <v>0</v>
@@ -19117,7 +19975,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="B592">
         <v>0</v>
@@ -19128,7 +19986,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="B593">
         <v>0</v>
@@ -19139,7 +19997,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
       <c r="B594">
         <v>0</v>
@@ -19150,7 +20008,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
       <c r="B595">
         <v>0</v>
@@ -19161,40 +20019,40 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>137</v>
+        <v>1177</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="B597">
         <v>0</v>
       </c>
       <c r="C597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="B598">
         <v>0</v>
       </c>
       <c r="C598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1166</v>
+        <v>141</v>
       </c>
       <c r="B599">
         <v>0</v>
@@ -19205,7 +20063,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="B600">
         <v>0</v>
@@ -19216,7 +20074,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="B601">
         <v>0</v>
@@ -19227,7 +20085,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="B602">
         <v>0</v>
@@ -19238,7 +20096,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="B603">
         <v>0</v>
@@ -19249,7 +20107,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="B604">
         <v>0</v>
@@ -19260,7 +20118,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -19271,7 +20129,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="B606">
         <v>0</v>
@@ -19282,7 +20140,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="B607">
         <v>0</v>
@@ -19293,7 +20151,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -19304,7 +20162,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
       <c r="B609">
         <v>0</v>
@@ -19315,7 +20173,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
       <c r="B610">
         <v>0</v>
@@ -19326,7 +20184,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="B611">
         <v>0</v>
@@ -19337,7 +20195,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1175</v>
+        <v>1192</v>
       </c>
       <c r="B612">
         <v>0</v>
@@ -19348,7 +20206,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="B613">
         <v>0</v>
@@ -19359,7 +20217,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1109</v>
+        <v>1194</v>
       </c>
       <c r="B614">
         <v>0</v>
@@ -19370,7 +20228,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>930</v>
+        <v>1195</v>
       </c>
       <c r="B615">
         <v>0</v>
@@ -19381,7 +20239,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>141</v>
+        <v>1196</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -19392,7 +20250,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -19403,7 +20261,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="B618">
         <v>0</v>
@@ -19414,7 +20272,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="B619">
         <v>0</v>
@@ -19425,7 +20283,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -19436,7 +20294,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -19447,7 +20305,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>295</v>
+        <v>1202</v>
       </c>
       <c r="B622">
         <v>0</v>
@@ -19458,7 +20316,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1185</v>
+        <v>1203</v>
       </c>
       <c r="B623">
         <v>0</v>
@@ -19469,7 +20327,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>913</v>
+        <v>1204</v>
       </c>
       <c r="B624">
         <v>0</v>
@@ -19480,7 +20338,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1186</v>
+        <v>1205</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -19491,7 +20349,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -19502,7 +20360,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="B627">
         <v>0</v>
@@ -19513,7 +20371,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -19524,7 +20382,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1190</v>
+        <v>1209</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -19535,7 +20393,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="B630">
         <v>0</v>
@@ -19546,7 +20404,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="B631">
         <v>0</v>
@@ -19557,7 +20415,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1193</v>
+        <v>1212</v>
       </c>
       <c r="B632">
         <v>0</v>
@@ -19568,7 +20426,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1194</v>
+        <v>1213</v>
       </c>
       <c r="B633">
         <v>0</v>
@@ -19579,7 +20437,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>426</v>
+        <v>1214</v>
       </c>
       <c r="B634">
         <v>0</v>
@@ -19590,7 +20448,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1195</v>
+        <v>1215</v>
       </c>
       <c r="B635">
         <v>0</v>
@@ -19601,7 +20459,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
       <c r="B636">
         <v>0</v>
@@ -19612,7 +20470,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -19623,7 +20481,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1198</v>
+        <v>1218</v>
       </c>
       <c r="B638">
         <v>0</v>
@@ -19634,7 +20492,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="B639">
         <v>0</v>
@@ -19645,7 +20503,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="B640">
         <v>0</v>
@@ -19656,7 +20514,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1201</v>
+        <v>1221</v>
       </c>
       <c r="B641">
         <v>0</v>
@@ -19667,7 +20525,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1202</v>
+        <v>1222</v>
       </c>
       <c r="B642">
         <v>0</v>
@@ -19678,7 +20536,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1203</v>
+        <v>1223</v>
       </c>
       <c r="B643">
         <v>0</v>
@@ -19689,7 +20547,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -19700,7 +20558,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1205</v>
+        <v>1225</v>
       </c>
       <c r="B645">
         <v>0</v>
@@ -19711,7 +20569,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1206</v>
+        <v>1226</v>
       </c>
       <c r="B646">
         <v>0</v>
@@ -19722,7 +20580,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1207</v>
+        <v>1227</v>
       </c>
       <c r="B647">
         <v>0</v>
@@ -19733,7 +20591,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>578</v>
+        <v>1228</v>
       </c>
       <c r="B648">
         <v>0</v>
@@ -19744,7 +20602,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1208</v>
+        <v>1229</v>
       </c>
       <c r="B649">
         <v>0</v>
@@ -19755,7 +20613,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1209</v>
+        <v>1230</v>
       </c>
       <c r="B650">
         <v>0</v>
@@ -19766,7 +20624,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1210</v>
+        <v>1231</v>
       </c>
       <c r="B651">
         <v>0</v>
@@ -19777,7 +20635,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>180</v>
+        <v>1232</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -19788,7 +20646,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="B653">
         <v>0</v>
@@ -19799,7 +20657,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1212</v>
+        <v>64</v>
       </c>
       <c r="B654">
         <v>0</v>
@@ -19810,7 +20668,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1213</v>
+        <v>1234</v>
       </c>
       <c r="B655">
         <v>0</v>
@@ -19821,7 +20679,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1214</v>
+        <v>1235</v>
       </c>
       <c r="B656">
         <v>0</v>
@@ -19832,7 +20690,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
       <c r="B657">
         <v>0</v>
@@ -19843,7 +20701,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1216</v>
+        <v>1237</v>
       </c>
       <c r="B658">
         <v>0</v>
@@ -19854,7 +20712,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>426</v>
+        <v>1238</v>
       </c>
       <c r="B659">
         <v>0</v>
@@ -19865,7 +20723,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1217</v>
+        <v>1239</v>
       </c>
       <c r="B660">
         <v>0</v>
@@ -19876,7 +20734,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1218</v>
+        <v>1240</v>
       </c>
       <c r="B661">
         <v>0</v>
@@ -19887,7 +20745,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1219</v>
+        <v>1241</v>
       </c>
       <c r="B662">
         <v>0</v>
@@ -19898,7 +20756,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1220</v>
+        <v>1242</v>
       </c>
       <c r="B663">
         <v>0</v>
@@ -19909,7 +20767,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1221</v>
+        <v>1243</v>
       </c>
       <c r="B664">
         <v>0</v>
@@ -19920,7 +20778,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1222</v>
+        <v>1244</v>
       </c>
       <c r="B665">
         <v>0</v>
@@ -19930,8 +20788,8 @@
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A666" s="2" t="s">
-        <v>801</v>
+      <c r="A666" t="s">
+        <v>1245</v>
       </c>
       <c r="B666">
         <v>0</v>
@@ -19942,7 +20800,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1223</v>
+        <v>1246</v>
       </c>
       <c r="B667">
         <v>0</v>
@@ -19953,7 +20811,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="B668">
         <v>0</v>
@@ -19964,7 +20822,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>798</v>
+        <v>1248</v>
       </c>
       <c r="B669">
         <v>0</v>
@@ -19975,7 +20833,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1225</v>
+        <v>1249</v>
       </c>
       <c r="B670">
         <v>0</v>
@@ -19986,7 +20844,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="B671">
         <v>0</v>
@@ -19997,7 +20855,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>179</v>
+        <v>1251</v>
       </c>
       <c r="B672">
         <v>0</v>
@@ -20008,7 +20866,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1227</v>
+        <v>1252</v>
       </c>
       <c r="B673">
         <v>0</v>
@@ -20019,7 +20877,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>393</v>
+        <v>1253</v>
       </c>
       <c r="B674">
         <v>0</v>
@@ -20030,7 +20888,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1228</v>
+        <v>1254</v>
       </c>
       <c r="B675">
         <v>0</v>
@@ -20041,7 +20899,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="B676">
         <v>0</v>
@@ -20052,7 +20910,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1230</v>
+        <v>1256</v>
       </c>
       <c r="B677">
         <v>0</v>
@@ -20063,7 +20921,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1231</v>
+        <v>1257</v>
       </c>
       <c r="B678">
         <v>0</v>
@@ -20074,7 +20932,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1232</v>
+        <v>1258</v>
       </c>
       <c r="B679">
         <v>0</v>
@@ -20085,7 +20943,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1233</v>
+        <v>1259</v>
       </c>
       <c r="B680">
         <v>0</v>
@@ -20096,7 +20954,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>64</v>
+        <v>1260</v>
       </c>
       <c r="B681">
         <v>0</v>
@@ -20107,7 +20965,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>1234</v>
+        <v>1261</v>
       </c>
       <c r="B682">
         <v>0</v>
@@ -20118,7 +20976,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1235</v>
+        <v>1262</v>
       </c>
       <c r="B683">
         <v>0</v>
@@ -20129,7 +20987,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1236</v>
+        <v>1263</v>
       </c>
       <c r="B684">
         <v>0</v>
@@ -20140,7 +20998,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>1237</v>
+        <v>1264</v>
       </c>
       <c r="B685">
         <v>0</v>
@@ -20151,7 +21009,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>1238</v>
+        <v>1265</v>
       </c>
       <c r="B686">
         <v>0</v>
@@ -20162,7 +21020,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>628</v>
+        <v>1266</v>
       </c>
       <c r="B687">
         <v>0</v>
@@ -20173,7 +21031,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1239</v>
+        <v>1267</v>
       </c>
       <c r="B688">
         <v>0</v>
@@ -20184,7 +21042,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1240</v>
+        <v>1268</v>
       </c>
       <c r="B689">
         <v>0</v>
@@ -20195,7 +21053,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1241</v>
+        <v>1269</v>
       </c>
       <c r="B690">
         <v>0</v>
@@ -20206,7 +21064,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>1242</v>
+        <v>1270</v>
       </c>
       <c r="B691">
         <v>0</v>
@@ -20217,7 +21075,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1243</v>
+        <v>1271</v>
       </c>
       <c r="B692">
         <v>0</v>
@@ -20228,7 +21086,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1244</v>
+        <v>677</v>
       </c>
       <c r="B693">
         <v>0</v>
@@ -20239,7 +21097,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1245</v>
+        <v>13</v>
       </c>
       <c r="B694">
         <v>0</v>
@@ -20250,7 +21108,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1246</v>
+        <v>11</v>
       </c>
       <c r="B695">
         <v>0</v>
@@ -20261,7 +21119,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>426</v>
+        <v>1272</v>
       </c>
       <c r="B696">
         <v>0</v>
@@ -20272,7 +21130,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1247</v>
+        <v>1273</v>
       </c>
       <c r="B697">
         <v>0</v>
@@ -20283,7 +21141,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1248</v>
+        <v>1274</v>
       </c>
       <c r="B698">
         <v>0</v>
@@ -20294,7 +21152,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>796</v>
+        <v>1275</v>
       </c>
       <c r="B699">
         <v>0</v>
@@ -20305,7 +21163,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1249</v>
+        <v>1276</v>
       </c>
       <c r="B700">
         <v>0</v>
@@ -20316,7 +21174,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1250</v>
+        <v>1277</v>
       </c>
       <c r="B701">
         <v>0</v>
@@ -20327,7 +21185,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1251</v>
+        <v>1278</v>
       </c>
       <c r="B702">
         <v>0</v>
@@ -20338,7 +21196,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1252</v>
+        <v>1279</v>
       </c>
       <c r="B703">
         <v>0</v>
@@ -20349,7 +21207,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1253</v>
+        <v>1280</v>
       </c>
       <c r="B704">
         <v>0</v>
@@ -20360,7 +21218,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>773</v>
+        <v>1281</v>
       </c>
       <c r="B705">
         <v>0</v>
@@ -20371,7 +21229,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1254</v>
+        <v>1282</v>
       </c>
       <c r="B706">
         <v>0</v>
@@ -20382,7 +21240,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>744</v>
+        <v>1283</v>
       </c>
       <c r="B707">
         <v>0</v>
@@ -20393,7 +21251,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1255</v>
+        <v>1284</v>
       </c>
       <c r="B708">
         <v>0</v>
@@ -20404,7 +21262,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1256</v>
+        <v>1285</v>
       </c>
       <c r="B709">
         <v>0</v>
@@ -20415,7 +21273,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1257</v>
+        <v>15</v>
       </c>
       <c r="B710">
         <v>0</v>
@@ -20426,7 +21284,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
       <c r="B711">
         <v>0</v>
@@ -20437,7 +21295,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1259</v>
+        <v>1287</v>
       </c>
       <c r="B712">
         <v>0</v>
@@ -20448,40 +21306,40 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1260</v>
+        <v>1288</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1261</v>
+        <v>1289</v>
       </c>
       <c r="B714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1262</v>
+        <v>1290</v>
       </c>
       <c r="B715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1263</v>
+        <v>1291</v>
       </c>
       <c r="B716">
         <v>0</v>
@@ -20492,7 +21350,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1264</v>
+        <v>1292</v>
       </c>
       <c r="B717">
         <v>0</v>
@@ -20503,7 +21361,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1265</v>
+        <v>1293</v>
       </c>
       <c r="B718">
         <v>0</v>
@@ -20514,7 +21372,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>1266</v>
+        <v>1294</v>
       </c>
       <c r="B719">
         <v>0</v>
@@ -20525,7 +21383,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1267</v>
+        <v>1295</v>
       </c>
       <c r="B720">
         <v>0</v>
@@ -20536,7 +21394,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1258</v>
+        <v>1296</v>
       </c>
       <c r="B721">
         <v>0</v>
@@ -20547,7 +21405,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1268</v>
+        <v>1297</v>
       </c>
       <c r="B722">
         <v>0</v>
@@ -20558,7 +21416,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1269</v>
+        <v>1298</v>
       </c>
       <c r="B723">
         <v>0</v>
@@ -20569,7 +21427,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1270</v>
+        <v>1299</v>
       </c>
       <c r="B724">
         <v>0</v>
@@ -20580,7 +21438,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1271</v>
+        <v>1300</v>
       </c>
       <c r="B725">
         <v>0</v>
@@ -20591,18 +21449,18 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>677</v>
+        <v>1301</v>
       </c>
       <c r="B726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>13</v>
+        <v>1302</v>
       </c>
       <c r="B727">
         <v>0</v>
@@ -20613,7 +21471,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>11</v>
+        <v>1303</v>
       </c>
       <c r="B728">
         <v>0</v>
@@ -20624,7 +21482,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1272</v>
+        <v>1304</v>
       </c>
       <c r="B729">
         <v>0</v>
@@ -20635,7 +21493,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1273</v>
+        <v>1305</v>
       </c>
       <c r="B730">
         <v>0</v>
@@ -20646,7 +21504,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1274</v>
+        <v>1306</v>
       </c>
       <c r="B731">
         <v>0</v>
@@ -20657,7 +21515,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1275</v>
+        <v>1307</v>
       </c>
       <c r="B732">
         <v>0</v>
@@ -20668,7 +21526,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1276</v>
+        <v>1308</v>
       </c>
       <c r="B733">
         <v>0</v>
@@ -20679,7 +21537,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1277</v>
+        <v>1309</v>
       </c>
       <c r="B734">
         <v>0</v>
@@ -20690,7 +21548,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1278</v>
+        <v>1310</v>
       </c>
       <c r="B735">
         <v>0</v>
@@ -20701,7 +21559,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1279</v>
+        <v>1311</v>
       </c>
       <c r="B736">
         <v>0</v>
@@ -20712,7 +21570,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1280</v>
+        <v>1312</v>
       </c>
       <c r="B737">
         <v>0</v>
@@ -20723,7 +21581,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1281</v>
+        <v>1313</v>
       </c>
       <c r="B738">
         <v>0</v>
@@ -20734,7 +21592,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1282</v>
+        <v>1314</v>
       </c>
       <c r="B739">
         <v>0</v>
@@ -20745,7 +21603,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1283</v>
+        <v>1315</v>
       </c>
       <c r="B740">
         <v>0</v>
@@ -20756,7 +21614,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1284</v>
+        <v>1316</v>
       </c>
       <c r="B741">
         <v>0</v>
@@ -20767,7 +21625,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1285</v>
+        <v>1317</v>
       </c>
       <c r="B742">
         <v>0</v>
@@ -20778,7 +21636,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>15</v>
+        <v>1318</v>
       </c>
       <c r="B743">
         <v>0</v>
@@ -20789,7 +21647,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="B744">
         <v>0</v>
@@ -20800,7 +21658,7 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1287</v>
+        <v>1320</v>
       </c>
       <c r="B745">
         <v>0</v>
@@ -20811,40 +21669,40 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1291</v>
+        <v>1324</v>
       </c>
       <c r="B749">
         <v>0</v>
@@ -20855,7 +21713,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="B750">
         <v>0</v>
@@ -20866,7 +21724,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="B751">
         <v>0</v>
@@ -20877,7 +21735,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="B752">
         <v>0</v>
@@ -20888,7 +21746,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>390</v>
+        <v>1328</v>
       </c>
       <c r="B753">
         <v>0</v>
@@ -20899,7 +21757,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1295</v>
+        <v>1329</v>
       </c>
       <c r="B754">
         <v>0</v>
@@ -20910,7 +21768,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1296</v>
+        <v>1330</v>
       </c>
       <c r="B755">
         <v>0</v>
@@ -20921,7 +21779,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1297</v>
+        <v>1331</v>
       </c>
       <c r="B756">
         <v>0</v>
@@ -20932,7 +21790,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1298</v>
+        <v>1332</v>
       </c>
       <c r="B757">
         <v>0</v>
@@ -20943,7 +21801,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1299</v>
+        <v>1333</v>
       </c>
       <c r="B758">
         <v>0</v>
@@ -20954,7 +21812,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1300</v>
+        <v>1334</v>
       </c>
       <c r="B759">
         <v>0</v>
@@ -20965,18 +21823,18 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1302</v>
+        <v>1336</v>
       </c>
       <c r="B761">
         <v>0</v>
@@ -20987,7 +21845,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1303</v>
+        <v>1337</v>
       </c>
       <c r="B762">
         <v>0</v>
@@ -20998,7 +21856,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>734</v>
+        <v>1338</v>
       </c>
       <c r="B763">
         <v>0</v>
@@ -21009,7 +21867,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1304</v>
+        <v>1339</v>
       </c>
       <c r="B764">
         <v>0</v>
@@ -21020,7 +21878,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1305</v>
+        <v>1340</v>
       </c>
       <c r="B765">
         <v>0</v>
@@ -21031,7 +21889,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>734</v>
+        <v>1341</v>
       </c>
       <c r="B766">
         <v>0</v>
@@ -21042,7 +21900,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1306</v>
+        <v>1342</v>
       </c>
       <c r="B767">
         <v>0</v>
@@ -21053,7 +21911,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1307</v>
+        <v>1343</v>
       </c>
       <c r="B768">
         <v>0</v>
@@ -21064,7 +21922,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1308</v>
+        <v>1344</v>
       </c>
       <c r="B769">
         <v>0</v>
@@ -21075,7 +21933,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>426</v>
+        <v>1345</v>
       </c>
       <c r="B770">
         <v>0</v>
@@ -21086,29 +21944,29 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1001</v>
+        <v>1346</v>
       </c>
       <c r="B771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1309</v>
+        <v>1347</v>
       </c>
       <c r="B772">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1310</v>
+        <v>1348</v>
       </c>
       <c r="B773">
         <v>0</v>
@@ -21119,7 +21977,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>601</v>
+        <v>1349</v>
       </c>
       <c r="B774">
         <v>0</v>
@@ -21130,7 +21988,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1311</v>
+        <v>1350</v>
       </c>
       <c r="B775">
         <v>0</v>
@@ -21141,7 +21999,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1312</v>
+        <v>1351</v>
       </c>
       <c r="B776">
         <v>0</v>
@@ -21152,7 +22010,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1313</v>
+        <v>1352</v>
       </c>
       <c r="B777">
         <v>0</v>
@@ -21163,7 +22021,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1314</v>
+        <v>1353</v>
       </c>
       <c r="B778">
         <v>0</v>
@@ -21174,7 +22032,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1315</v>
+        <v>1354</v>
       </c>
       <c r="B779">
         <v>0</v>
@@ -21185,29 +22043,29 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1316</v>
+        <v>1355</v>
       </c>
       <c r="B780">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1317</v>
+        <v>1356</v>
       </c>
       <c r="B781">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1318</v>
+        <v>1357</v>
       </c>
       <c r="B782">
         <v>0</v>
@@ -21218,18 +22076,18 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1319</v>
+        <v>1358</v>
       </c>
       <c r="B783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>747</v>
+        <v>1359</v>
       </c>
       <c r="B784">
         <v>0</v>
@@ -21240,29 +22098,29 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="B785">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>65</v>
+        <v>1361</v>
       </c>
       <c r="B786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1321</v>
+        <v>1362</v>
       </c>
       <c r="B787">
         <v>0</v>
@@ -21273,7 +22131,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1322</v>
+        <v>1363</v>
       </c>
       <c r="B788">
         <v>0</v>
@@ -21284,7 +22142,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1323</v>
+        <v>1364</v>
       </c>
       <c r="B789">
         <v>0</v>
@@ -21295,7 +22153,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1324</v>
+        <v>1365</v>
       </c>
       <c r="B790">
         <v>0</v>
@@ -21306,7 +22164,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>129</v>
+        <v>1366</v>
       </c>
       <c r="B791">
         <v>0</v>
@@ -21317,7 +22175,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>292</v>
+        <v>1367</v>
       </c>
       <c r="B792">
         <v>0</v>
@@ -21328,7 +22186,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1325</v>
+        <v>1368</v>
       </c>
       <c r="B793">
         <v>0</v>
@@ -21339,7 +22197,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1326</v>
+        <v>1369</v>
       </c>
       <c r="B794">
         <v>0</v>
@@ -21350,7 +22208,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1327</v>
+        <v>1370</v>
       </c>
       <c r="B795">
         <v>0</v>
@@ -21361,18 +22219,18 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1328</v>
+        <v>1371</v>
       </c>
       <c r="B796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1329</v>
+        <v>1372</v>
       </c>
       <c r="B797">
         <v>0</v>
@@ -21383,7 +22241,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1330</v>
+        <v>1373</v>
       </c>
       <c r="B798">
         <v>0</v>
@@ -21394,18 +22252,18 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1331</v>
+        <v>272</v>
       </c>
       <c r="B799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1332</v>
+        <v>1374</v>
       </c>
       <c r="B800">
         <v>0</v>
@@ -21416,62 +22274,62 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1333</v>
+        <v>1375</v>
       </c>
       <c r="B801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>608</v>
+        <v>1376</v>
       </c>
       <c r="B802">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>185</v>
+        <v>1377</v>
       </c>
       <c r="B803">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1334</v>
+        <v>1378</v>
       </c>
       <c r="B804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1335</v>
+        <v>1379</v>
       </c>
       <c r="B805">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1336</v>
+        <v>1380</v>
       </c>
       <c r="B806">
         <v>0</v>
@@ -21482,7 +22340,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1337</v>
+        <v>1381</v>
       </c>
       <c r="B807">
         <v>0</v>
@@ -21493,7 +22351,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1338</v>
+        <v>1382</v>
       </c>
       <c r="B808">
         <v>0</v>
@@ -21504,18 +22362,18 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1339</v>
+        <v>1383</v>
       </c>
       <c r="B809">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1340</v>
+        <v>1385</v>
       </c>
       <c r="B810">
         <v>0</v>
@@ -21526,7 +22384,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>129</v>
+        <v>1384</v>
       </c>
       <c r="B811">
         <v>0</v>
@@ -21537,7 +22395,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>181</v>
+        <v>1386</v>
       </c>
       <c r="B812">
         <v>0</v>
@@ -21548,7 +22406,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>722</v>
+        <v>1387</v>
       </c>
       <c r="B813">
         <v>0</v>
@@ -21559,7 +22417,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1341</v>
+        <v>1388</v>
       </c>
       <c r="B814">
         <v>0</v>
@@ -21570,29 +22428,29 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1342</v>
+        <v>1389</v>
       </c>
       <c r="B815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>754</v>
+        <v>1390</v>
       </c>
       <c r="B816">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1343</v>
+        <v>1391</v>
       </c>
       <c r="B817">
         <v>0</v>
@@ -21603,7 +22461,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1344</v>
+        <v>1392</v>
       </c>
       <c r="B818">
         <v>0</v>
@@ -21614,7 +22472,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>390</v>
+        <v>1393</v>
       </c>
       <c r="B819">
         <v>0</v>
@@ -21625,7 +22483,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1013</v>
+        <v>1394</v>
       </c>
       <c r="B820">
         <v>0</v>
@@ -21636,7 +22494,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1345</v>
+        <v>1407</v>
       </c>
       <c r="B821">
         <v>0</v>
@@ -21647,7 +22505,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1346</v>
+        <v>1395</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -21658,29 +22516,29 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1103</v>
+        <v>1396</v>
       </c>
       <c r="B823">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1347</v>
+        <v>1397</v>
       </c>
       <c r="B824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1348</v>
+        <v>1398</v>
       </c>
       <c r="B825">
         <v>0</v>
@@ -21691,7 +22549,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1349</v>
+        <v>1399</v>
       </c>
       <c r="B826">
         <v>0</v>
@@ -21702,51 +22560,51 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="B827">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="B828">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1352</v>
+        <v>1402</v>
       </c>
       <c r="B829">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1353</v>
+        <v>1403</v>
       </c>
       <c r="B830">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1354</v>
+        <v>1404</v>
       </c>
       <c r="B831">
         <v>0</v>
@@ -21757,7 +22615,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>726</v>
+        <v>1405</v>
       </c>
       <c r="B832">
         <v>0</v>
@@ -21768,29 +22626,29 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1355</v>
+        <v>1406</v>
       </c>
       <c r="B833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1356</v>
+        <v>1408</v>
       </c>
       <c r="B834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1357</v>
+        <v>1409</v>
       </c>
       <c r="B835">
         <v>0</v>
@@ -21801,7 +22659,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1323</v>
+        <v>1410</v>
       </c>
       <c r="B836">
         <v>0</v>
@@ -21812,644 +22670,1988 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1358</v>
+        <v>1411</v>
       </c>
       <c r="B837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B838">
-        <v>0</v>
-      </c>
-      <c r="C838">
-        <v>1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B839">
-        <v>1</v>
-      </c>
-      <c r="C839">
-        <v>0</v>
+        <v>587</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B840">
-        <v>1</v>
-      </c>
-      <c r="C840">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B841">
-        <v>0</v>
-      </c>
-      <c r="C841">
-        <v>1</v>
+        <v>894</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B842">
-        <v>0</v>
-      </c>
-      <c r="C842">
-        <v>1</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B843">
-        <v>0</v>
-      </c>
-      <c r="C843">
-        <v>1</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B844">
-        <v>0</v>
-      </c>
-      <c r="C844">
-        <v>1</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B845">
-        <v>0</v>
-      </c>
-      <c r="C845">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>208</v>
-      </c>
-      <c r="B846">
-        <v>0</v>
-      </c>
-      <c r="C846">
-        <v>1</v>
+        <v>754</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B847">
-        <v>0</v>
-      </c>
-      <c r="C847">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B848">
-        <v>0</v>
-      </c>
-      <c r="C848">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B849">
-        <v>0</v>
-      </c>
-      <c r="C849">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B850">
-        <v>0</v>
-      </c>
-      <c r="C850">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B851">
-        <v>1</v>
-      </c>
-      <c r="C851">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B852">
-        <v>0</v>
-      </c>
-      <c r="C852">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B853">
-        <v>0</v>
-      </c>
-      <c r="C853">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
         <v>1145</v>
       </c>
-      <c r="B854">
-        <v>1</v>
-      </c>
-      <c r="C854">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A855" t="s">
-        <v>82</v>
-      </c>
-      <c r="B855">
-        <v>1</v>
-      </c>
-      <c r="C855">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A856" t="s">
-        <v>272</v>
-      </c>
-      <c r="B856">
-        <v>1</v>
-      </c>
-      <c r="C856">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A857" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B857">
-        <v>0</v>
-      </c>
-      <c r="C857">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A858" t="s">
-        <v>722</v>
-      </c>
-      <c r="B858">
-        <v>0</v>
-      </c>
-      <c r="C858">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A859" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B859">
-        <v>1</v>
-      </c>
-      <c r="C859">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A860" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B860">
-        <v>1</v>
-      </c>
-      <c r="C860">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A861" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B861">
-        <v>1</v>
-      </c>
-      <c r="C861">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A862" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B862">
-        <v>1</v>
-      </c>
-      <c r="C862">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A863" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B863">
-        <v>1</v>
-      </c>
-      <c r="C863">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A864" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B864">
-        <v>0</v>
-      </c>
-      <c r="C864">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A865" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B865">
-        <v>0</v>
-      </c>
-      <c r="C865">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A866" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B866">
-        <v>0</v>
-      </c>
-      <c r="C866">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A867" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B867">
-        <v>0</v>
-      </c>
-      <c r="C867">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A868" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B868">
-        <v>1</v>
-      </c>
-      <c r="C868">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A869" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B869">
-        <v>0</v>
-      </c>
-      <c r="C869">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A870" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B870">
-        <v>0</v>
-      </c>
-      <c r="C870">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A871" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B871">
-        <v>0</v>
-      </c>
-      <c r="C871">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A872" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B872">
-        <v>0</v>
-      </c>
-      <c r="C872">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A873" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B873">
-        <v>0</v>
-      </c>
-      <c r="C873">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A874" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B874">
-        <v>1</v>
-      </c>
-      <c r="C874">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A875" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B875">
-        <v>1</v>
-      </c>
-      <c r="C875">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A876" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B876">
-        <v>0</v>
-      </c>
-      <c r="C876">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A877" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B877">
-        <v>0</v>
-      </c>
-      <c r="C877">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A878" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B878">
-        <v>0</v>
-      </c>
-      <c r="C878">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A879" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B879">
-        <v>0</v>
-      </c>
-      <c r="C879">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A880" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B880">
-        <v>0</v>
-      </c>
-      <c r="C880">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A881" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B881">
-        <v>1</v>
-      </c>
-      <c r="C881">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A882" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B882">
-        <v>0</v>
-      </c>
-      <c r="C882">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A883" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B883">
-        <v>0</v>
-      </c>
-      <c r="C883">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A884" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B884">
-        <v>0</v>
-      </c>
-      <c r="C884">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A885" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B885">
-        <v>0</v>
-      </c>
-      <c r="C885">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A886" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B886">
-        <v>1</v>
-      </c>
-      <c r="C886">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A887" t="s">
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
         <v>63</v>
       </c>
-      <c r="B887">
-        <v>1</v>
-      </c>
-      <c r="C887">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A888" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B888">
-        <v>1</v>
-      </c>
-      <c r="C888">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A889" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B889">
-        <v>1</v>
-      </c>
-      <c r="C889">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A890" t="s">
-        <v>284</v>
-      </c>
-      <c r="B890">
-        <v>1</v>
-      </c>
-      <c r="C890">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A891" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B891">
-        <v>1</v>
-      </c>
-      <c r="C891">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A892" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B892">
-        <v>0</v>
-      </c>
-      <c r="C892">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A893" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B893">
-        <v>0</v>
-      </c>
-      <c r="C893">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A894" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B894">
-        <v>0</v>
-      </c>
-      <c r="C894">
-        <v>1</v>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1137">
+        <v>0</v>
+      </c>
+      <c r="C1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K894" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}"/>
+  <autoFilter ref="A1:K1215" xr:uid="{1F5993EC-C272-4BB3-8AF9-D99E2F29219A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K481">
     <sortCondition ref="A1:A481"/>
   </sortState>
